--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>766272.6343515166</v>
+        <v>845774.2948799395</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5564538.631857702</v>
+        <v>5739665.97424076</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9623498.771259705</v>
+        <v>9552950.219331093</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.1247515876428</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>203.7296756369888</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188204</v>
       </c>
       <c r="U3" t="n">
         <v>225.8092030868072</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>79.41653965146482</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>225.9004289758745</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0964631582628</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158.2022700885298</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -1102,10 +1104,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>109.4464803081122</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>280.6849349264015</v>
       </c>
       <c r="Y8" t="n">
-        <v>238.6591887249591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249223</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>201.6622187863195</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>293.6407719183047</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799591</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.1158122680984</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680972</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.4467615872999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>209.5675193320712</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613055</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>60.82229543728046</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>59.90320919298916</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>186.6141597285334</v>
+        <v>126.5388824951727</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>126.0694959538573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>91.82743132019385</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342305</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>162.8284616980192</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039676</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>240.2451530332451</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680985</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>105.0076120744433</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.65430578147911</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>269.7836269118523</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.2230125550536</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>77.31354443380542</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.74698963171027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>285.8155499654471</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>165.933021010812</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3244,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>85.17289288835215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>232.877088770353</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>117.0859349823499</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>85.17289288835215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>251.2852794514152</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>96.48117474625255</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>51.06561173382014</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2901074925144485</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.40697986446754</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>252.8745390357881</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.6196756555346</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681314</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4150,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>226.3152024010419</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>53.05571959704653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.2918353600403</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C2" t="n">
-        <v>766.2918353600403</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D2" t="n">
-        <v>766.2918353600403</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E2" t="n">
-        <v>766.2918353600403</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.04202752539</v>
+        <v>1983.086018990601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1592.946687014789</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180658</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460311</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T3" t="n">
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4449,7 +4451,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="C4" t="n">
-        <v>837.079342274803</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624673</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800742</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821638</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1731970904424</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394854</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936605</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2339.360847594889</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2050.242510098727</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1795.55802189284</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1506.140851855879</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1278.151300957862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>1057.358721814332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.907945722348</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.907945722348</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.907945722348</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E5" t="n">
-        <v>1106.119693124104</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F5" t="n">
-        <v>695.1337883344966</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>279.4290380587854</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4571,7 +4573,7 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2318.807547432213</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1987.744660088642</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1987.744660088642</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1987.744660088642</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.50778578647</v>
+        <v>1597.605328112831</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>932.6070201144361</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C7" t="n">
-        <v>763.6708371865292</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>613.5541977741934</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>465.6411041918003</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>465.6411041918003</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4720,10 +4722,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4752,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>1423.310713278855</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.255484944676</v>
+        <v>1195.321162380837</v>
       </c>
       <c r="Y7" t="n">
-        <v>1114.255484944676</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339056</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836216</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836216</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5038,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.906610713899</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W11" t="n">
-        <v>3121.906610713899</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.2880032601528</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322459</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.729047233923</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.936468090393</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2175.400891308159</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1806.438374367747</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1448.172675760997</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>651.398518373145</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>236.3260682181414</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
@@ -5282,7 +5284,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5297,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2952.140063348093</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2562.000731372281</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X16" t="n">
-        <v>468.9531604059532</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y16" t="n">
-        <v>248.1605812624231</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308159</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367747</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760997</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>651.398518373145</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5510,10 +5512,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810562</v>
@@ -5522,43 +5524,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.140063348093</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372281</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>856.7165163051885</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C19" t="n">
-        <v>687.7803333772816</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3436713194226</v>
+        <v>294.723245171595</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4305777370295</v>
+        <v>294.723245171595</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>294.723245171595</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>127.0204085463139</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V19" t="n">
-        <v>1259.157560278958</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W19" t="n">
-        <v>1259.157560278958</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>1259.157560278958</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y19" t="n">
-        <v>1038.364981135428</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1986.901740067214</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,43 +5761,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U20" t="n">
-        <v>3137.106670368228</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V20" t="n">
-        <v>3137.106670368228</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W20" t="n">
-        <v>3137.106670368228</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>2763.640912107148</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>2373.501580131336</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>924.1535645674204</v>
+        <v>1038.151474791174</v>
       </c>
       <c r="C22" t="n">
-        <v>755.2173816395135</v>
+        <v>869.2152918632673</v>
       </c>
       <c r="D22" t="n">
-        <v>605.1007422271778</v>
+        <v>719.0986524509316</v>
       </c>
       <c r="E22" t="n">
-        <v>477.7578170212613</v>
+        <v>571.1855588685385</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>424.2956113706281</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>256.592774745347</v>
       </c>
       <c r="H22" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5938,22 +5940,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U22" t="n">
-        <v>1326.59460854119</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V22" t="n">
-        <v>1326.59460854119</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="W22" t="n">
-        <v>1326.59460854119</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X22" t="n">
-        <v>1326.59460854119</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="Y22" t="n">
-        <v>1105.80202939766</v>
+        <v>1038.151474791174</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2392.59927678083</v>
+        <v>2191.892269891264</v>
       </c>
       <c r="C25" t="n">
-        <v>2223.663093852923</v>
+        <v>2022.956086963357</v>
       </c>
       <c r="D25" t="n">
-        <v>2073.546454440587</v>
+        <v>1872.839447551022</v>
       </c>
       <c r="E25" t="n">
-        <v>1925.633360858194</v>
+        <v>1872.839447551022</v>
       </c>
       <c r="F25" t="n">
-        <v>1778.743413360284</v>
+        <v>1872.839447551022</v>
       </c>
       <c r="G25" t="n">
-        <v>1611.040576735003</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V25" t="n">
-        <v>3312.447041689577</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="W25" t="n">
-        <v>3023.029871652617</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="X25" t="n">
-        <v>2795.0403207546</v>
+        <v>2594.333313865034</v>
       </c>
       <c r="Y25" t="n">
-        <v>2574.24774161107</v>
+        <v>2373.540734721504</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1422.200456328342</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1053.237939387931</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9722407811803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>309.183988182936</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>1808.800296392464</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1808.800296392464</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6294,25 +6296,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
         <v>1685.951113992583</v>
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.680167749271</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C28" t="n">
-        <v>616.7439848213642</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D28" t="n">
-        <v>466.6273454090284</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E28" t="n">
-        <v>318.7142518266353</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O28" t="n">
         <v>1617.076751502319</v>
@@ -6412,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658019</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.110762621058</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X28" t="n">
-        <v>1188.121211723041</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.3286325795108</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1575.942324366272</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.942324366272</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>1089.587234425931</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>678.6013296363235</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6497,16 +6499,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3078.915909937399</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W29" t="n">
-        <v>2726.147254667285</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X29" t="n">
-        <v>2352.681496406205</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1962.542164430393</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1861.97070162018</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C31" t="n">
-        <v>1693.034518692273</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D31" t="n">
-        <v>1542.917879279937</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J31" t="n">
         <v>1509.946022399797</v>
@@ -6625,16 +6627,16 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N31" t="n">
         <v>2716.058426102583</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P31" t="n">
         <v>3247.995525456656</v>
@@ -6646,25 +6648,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U31" t="n">
-        <v>3036.502954734814</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V31" t="n">
-        <v>2781.818466528927</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W31" t="n">
-        <v>2492.401296491967</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X31" t="n">
-        <v>2264.411745593949</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y31" t="n">
-        <v>2043.619166450419</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>1105.781096096229</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>694.7951913066213</v>
       </c>
       <c r="G32" t="n">
         <v>406.0926155839475</v>
@@ -6695,55 +6697,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993392</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W32" t="n">
-        <v>3119.628073993392</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X32" t="n">
-        <v>2746.162315732312</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y32" t="n">
-        <v>2356.022983756501</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="33">
@@ -6753,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6883,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1759.685435956359</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1537.918820525886</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392149</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324644</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5090151927147</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="36">
@@ -7014,7 +7016,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031477</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952862</v>
+        <v>2440.490738531498</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>2271.554555603591</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>2121.437916191255</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>1973.524822608862</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>1826.634875110952</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I37" t="n">
         <v>1464.823389952862</v>
@@ -7117,28 +7119,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645848</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>2842.931782505268</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.3362096043</v>
+        <v>2622.139203361738</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796265</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392149</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324644</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>731.3215358191801</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>320.3356310295725</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1042.179465010819</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C40" t="n">
-        <v>873.2432820829119</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D40" t="n">
-        <v>723.1266426705762</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E40" t="n">
-        <v>575.2135490881831</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>118.0935424259411</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7369,13 +7371,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W40" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X40" t="n">
-        <v>1444.620508984588</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y40" t="n">
-        <v>1223.827929841058</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.312783737945</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.312783737945</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3071.782307011781</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1007.761086342349</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C43" t="n">
-        <v>838.8249034144422</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D43" t="n">
-        <v>688.7082640021065</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>540.7951704197134</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X43" t="n">
-        <v>1410.202130316119</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y43" t="n">
-        <v>1189.409551172589</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1605.60199849331</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371782</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304277</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218345</v>
+        <v>850.8512289546543</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218345</v>
+        <v>439.8653241650467</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641712</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2097.796235700529</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C46" t="n">
-        <v>1928.860052772622</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D46" t="n">
-        <v>1778.743413360286</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>1778.743413360286</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>1778.743413360286</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>1611.040576735005</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.823389952863</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952863</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609172</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609172</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>3036.502954734816</v>
+        <v>1507.007449368812</v>
       </c>
       <c r="V46" t="n">
-        <v>2781.818466528929</v>
+        <v>1252.322961162925</v>
       </c>
       <c r="W46" t="n">
-        <v>2728.226830572316</v>
+        <v>962.9057911259641</v>
       </c>
       <c r="X46" t="n">
-        <v>2500.237279674299</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y46" t="n">
-        <v>2279.444700530769</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>60.50016306149564</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.60909007583774</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22606,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>124.0225828331461</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22677,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>100.4154405304725</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>80.8509579418146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22787,19 +22789,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>75.11812358653091</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -22838,19 +22840,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>9.948786970199194</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,13 +22950,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>8.104329956274427</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22990,10 +22992,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -23002,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>177.0765180284788</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>89.04616575206757</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.5787499310945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23179,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>92.48912964370402</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>126.0900396838154</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>76.09032876016431</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.02872873825321</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192221</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>2.579046671728292</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>16.14213605696597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>168.0688818921479</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87.7931775809319</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133163</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24025,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>64.38101223036855</v>
+        <v>124.4562894637293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20.36446669271189</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>52.92758359412693</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>126.4919521192229</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.197346561009056</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>166.6308927084663</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>181.1251564493145</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.60786094376907</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76674224145214</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>141.1380987416012</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>83.52924591508128</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>69.12041821276375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>371.9868520317703</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>125.1061756880064</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25123,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>23.83600432062994</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>178.0446368831004</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>48.93987327667837</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>159.6364462020382</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.9398732766787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>93.68940318050065</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>108.8976542956614</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.0140681584637</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>33.3372991698248</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>41.3020499979188</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>145.992785622807</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>59.89663580457099</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>233.4672787395445</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768896.6821529665</v>
+        <v>768896.6821529666</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845201.995918953</v>
+        <v>768896.6821529666</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189533</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189533</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189533</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189533</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189534</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845201.995918953</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845201.9959189531</v>
+        <v>845201.9959189532</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.995918953</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189531</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845201.9959189532</v>
+        <v>845201.9959189529</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>321270.2120190238</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.2120190239</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="D2" t="n">
-        <v>358046.9539194666</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194668</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="M2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
@@ -26353,7 +26355,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.628711743251188e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>19788.00270570974</v>
       </c>
       <c r="C4" t="n">
+        <v>19788.00270570975</v>
+      </c>
+      <c r="D4" t="n">
         <v>19788.00270570974</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10380.34706710378</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-906207.3467024501</v>
+        <v>-906207.34670245</v>
       </c>
       <c r="C6" t="n">
-        <v>208544.4368734695</v>
+        <v>208544.4368734691</v>
       </c>
       <c r="D6" t="n">
-        <v>47105.52585063159</v>
+        <v>208544.4368734694</v>
       </c>
       <c r="E6" t="n">
+        <v>91287.28647377876</v>
+      </c>
+      <c r="F6" t="n">
+        <v>273360.2662909694</v>
+      </c>
+      <c r="G6" t="n">
+        <v>273360.2662909694</v>
+      </c>
+      <c r="H6" t="n">
         <v>273360.2662909696</v>
-      </c>
-      <c r="F6" t="n">
-        <v>273360.2662909696</v>
-      </c>
-      <c r="G6" t="n">
-        <v>273360.2662909693</v>
-      </c>
-      <c r="H6" t="n">
-        <v>273360.2662909695</v>
       </c>
       <c r="I6" t="n">
         <v>273360.2662909696</v>
       </c>
       <c r="J6" t="n">
-        <v>105755.0884809869</v>
+        <v>105755.0884809872</v>
       </c>
       <c r="K6" t="n">
-        <v>273360.2662909696</v>
+        <v>273360.2662909697</v>
       </c>
       <c r="L6" t="n">
-        <v>225066.2962827788</v>
+        <v>273360.2662909694</v>
       </c>
       <c r="M6" t="n">
-        <v>273360.2662909696</v>
+        <v>225808.0004975547</v>
       </c>
       <c r="N6" t="n">
         <v>273360.2662909696</v>
       </c>
       <c r="O6" t="n">
-        <v>273360.2662909695</v>
+        <v>273360.2662909697</v>
       </c>
       <c r="P6" t="n">
-        <v>273360.2662909695</v>
+        <v>273360.2662909696</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,16 +26752,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>155.7118084757592</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.684341886080801e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022538</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022537</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.8166233022538</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31039,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31051,37 +31053,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R2" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31157,7 +31159,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675763</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31212,10 +31214,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31224,22 +31226,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q4" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33734,10 +33736,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781694</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954001</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681188</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>427.431495343536</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,10 +34874,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35036,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597632</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
